--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_36.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3621703.989585932</v>
+        <v>3618686.399184995</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.58350059176972</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>322.3938476308371</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>55.30577178795878</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>49.45256041645978</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>236.5977310651948</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>191.1221731258966</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.08390849687525</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>333.5311910902749</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,13 +1181,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>168.0422690726465</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.4666232302528</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0566567996926</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>87.2343192307378</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,16 +1582,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>173.5954779282454</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.73384166348</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>158.5444837372205</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>36.59669811656386</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,10 +1850,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>91.96863582686784</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2050,22 +2050,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>56.39200938730556</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>202.8314011329659</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>237.3438858477102</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498029</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>109.0847947020405</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>14.16798767314088</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051997</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>276.6262695304742</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.16481274941304</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784707</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.823046562786948</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>77.35294335918924</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>108.4650682136798</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>23.85319828068373</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3269,13 +3269,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>93.29863756396142</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>93.47046906313331</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3557,13 +3557,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>132.8186088623185</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>169.9767343844078</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>187.0177962663429</v>
       </c>
       <c r="X43" t="n">
-        <v>101.0041688483414</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.8467312720326</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>119.1040463651502</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.94664591678</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="W2" t="n">
-        <v>2092.422847177208</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.422847177208</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.283515201396</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.1363086691493</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>246.1363086691493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>246.1363086691493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>246.1363086691493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>246.1363086691493</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="W4" t="n">
-        <v>246.1363086691493</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X4" t="n">
-        <v>246.1363086691493</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>246.1363086691493</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>983.0286321745434</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>614.0661152341316</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,13 +4571,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1930.736342022309</v>
       </c>
       <c r="W5" t="n">
-        <v>1936.146930626913</v>
+        <v>1577.967686752195</v>
       </c>
       <c r="X5" t="n">
-        <v>1562.681172365833</v>
+        <v>1577.967686752195</v>
       </c>
       <c r="Y5" t="n">
-        <v>1369.628472238665</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>272.8312459770186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>272.8312459770186</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.638474227115</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C8" t="n">
-        <v>913.7382812066351</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2472.38073581877</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2472.38073581877</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2472.38073581877</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.546461473041</v>
+        <v>2472.38073581877</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202927</v>
+        <v>2119.612080548655</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202927</v>
+        <v>1746.146322287575</v>
       </c>
       <c r="Y8" t="n">
-        <v>1250.638474227115</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4890,13 +4890,13 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.841510736975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>383.841510736975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>383.841510736975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942403</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942403</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942403</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V10" t="n">
-        <v>383.841510736975</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>383.841510736975</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>383.841510736975</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.841510736975</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5024,52 +5024,52 @@
         <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
@@ -5078,10 +5078,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>2786.879505108312</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>3033.644633014776</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>3340.964766294738</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>3899.235428472201</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>444.7802503911737</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V13" t="n">
-        <v>499.6581354340557</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W13" t="n">
-        <v>499.6581354340557</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>847.2212943649436</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>626.4287152214134</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>816.3222213695508</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>816.3222213695508</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>666.205581957215</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>666.205581957215</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>519.3156344593046</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1038.244483529058</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>783.5599953231707</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>494.1428252862101</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X16" t="n">
-        <v>266.1532743881928</v>
+        <v>816.3222213695508</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881928</v>
+        <v>816.3222213695508</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,16 +5510,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5537,7 +5537,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L18" t="n">
-        <v>3138.955990222747</v>
+        <v>929.5163332765953</v>
       </c>
       <c r="M18" t="n">
-        <v>3446.276123502708</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N18" t="n">
-        <v>3776.138751166741</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>4445.602512469401</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3720.806624707063</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C19" t="n">
-        <v>3720.806624707063</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>3570.689985294727</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>3570.689985294727</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>3570.689985294727</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>3570.689985294727</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>4549.85945949167</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>4549.85945949167</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>4492.897833847927</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V19" t="n">
-        <v>4238.213345642041</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="W19" t="n">
-        <v>3948.79617560508</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="X19" t="n">
-        <v>3720.806624707063</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="Y19" t="n">
-        <v>3720.806624707063</v>
+        <v>620.2426249169056</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L21" t="n">
-        <v>2771.824048372322</v>
+        <v>940.1463453738954</v>
       </c>
       <c r="M21" t="n">
-        <v>3079.144181652284</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>3573.327275421363</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>4242.791036724022</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>4763.091658459769</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.130185042679</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>983.0409538706682</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>693.9123150842264</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>693.9123150842264</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W22" t="n">
-        <v>693.9123150842264</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="X22" t="n">
-        <v>465.9227641862091</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y22" t="n">
-        <v>245.130185042679</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,22 +6002,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>357.520392187814</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C25" t="n">
-        <v>357.520392187814</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D25" t="n">
-        <v>207.4037527754782</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>207.4037527754782</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>207.4037527754782</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>874.927113122792</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>874.927113122792</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W25" t="n">
-        <v>585.5099430858313</v>
+        <v>1030.00067360783</v>
       </c>
       <c r="X25" t="n">
-        <v>357.520392187814</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="Y25" t="n">
-        <v>357.520392187814</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,19 +6218,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,16 +6239,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,22 +6300,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
         <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
         <v>2123.441607278215</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.85945949167</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>4270.438985218464</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V28" t="n">
-        <v>4270.438985218464</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W28" t="n">
-        <v>4270.438985218464</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="X28" t="n">
-        <v>4270.438985218464</v>
+        <v>192.3330639344405</v>
       </c>
       <c r="Y28" t="n">
-        <v>4049.646406074934</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6449,64 +6449,64 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>385.5899330013836</v>
+        <v>4018.114580657032</v>
       </c>
       <c r="C31" t="n">
-        <v>216.6537500734767</v>
+        <v>4018.114580657032</v>
       </c>
       <c r="D31" t="n">
-        <v>216.6537500734767</v>
+        <v>3867.997941244696</v>
       </c>
       <c r="E31" t="n">
-        <v>216.6537500734767</v>
+        <v>3867.997941244696</v>
       </c>
       <c r="F31" t="n">
-        <v>216.6537500734767</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="G31" t="n">
-        <v>216.6537500734767</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>4782.720286792891</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>4782.720286792891</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383442</v>
+        <v>4493.591648006449</v>
       </c>
       <c r="V31" t="n">
-        <v>675.0071030383442</v>
+        <v>4238.907159800562</v>
       </c>
       <c r="W31" t="n">
-        <v>385.5899330013836</v>
+        <v>4238.907159800562</v>
       </c>
       <c r="X31" t="n">
-        <v>385.5899330013836</v>
+        <v>4238.907159800562</v>
       </c>
       <c r="Y31" t="n">
-        <v>385.5899330013836</v>
+        <v>4018.114580657032</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6686,64 +6686,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>2013.406634128704</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4058.523348980396</v>
+        <v>3716.629162462382</v>
       </c>
       <c r="C34" t="n">
-        <v>3889.587166052489</v>
+        <v>3716.629162462382</v>
       </c>
       <c r="D34" t="n">
-        <v>3889.587166052489</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="E34" t="n">
-        <v>3741.674072470096</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F34" t="n">
-        <v>3594.784124972186</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>4260.730820705229</v>
       </c>
       <c r="V34" t="n">
-        <v>4347.940519017357</v>
+        <v>4006.046332499342</v>
       </c>
       <c r="W34" t="n">
-        <v>4058.523348980396</v>
+        <v>3716.629162462382</v>
       </c>
       <c r="X34" t="n">
-        <v>4058.523348980396</v>
+        <v>3716.629162462382</v>
       </c>
       <c r="Y34" t="n">
-        <v>4058.523348980396</v>
+        <v>3716.629162462382</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6950,13 +6950,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>3190.928350499667</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M36" t="n">
-        <v>3959.296496892129</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>4289.159124556162</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774859</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4168.996359003562</v>
+        <v>4166.027674239424</v>
       </c>
       <c r="C37" t="n">
-        <v>4074.755310959157</v>
+        <v>4166.027674239424</v>
       </c>
       <c r="D37" t="n">
-        <v>3924.638671546821</v>
+        <v>4015.911034827087</v>
       </c>
       <c r="E37" t="n">
-        <v>3924.638671546821</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048911</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368731</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
         <v>3459.155393916675</v>
@@ -7117,28 +7117,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>4455.444844276384</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>4455.444844276384</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>4455.444844276384</v>
       </c>
       <c r="W37" t="n">
-        <v>4571.437402977332</v>
+        <v>4166.027674239424</v>
       </c>
       <c r="X37" t="n">
-        <v>4571.437402977332</v>
+        <v>4166.027674239424</v>
       </c>
       <c r="Y37" t="n">
-        <v>4350.644823833802</v>
+        <v>4166.027674239424</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,7 +7208,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,19 +7254,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1564.731711769082</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N39" t="n">
-        <v>1894.594339433115</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2174.134404651812</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>549.6692635248398</v>
+        <v>3886.516115720544</v>
       </c>
       <c r="C40" t="n">
-        <v>549.6692635248398</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="D40" t="n">
-        <v>399.5526241125041</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="E40" t="n">
-        <v>399.5526241125041</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>4578.085798480756</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>4288.957159694314</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>4288.957159694314</v>
       </c>
       <c r="W40" t="n">
-        <v>731.3177283550796</v>
+        <v>4288.957159694314</v>
       </c>
       <c r="X40" t="n">
-        <v>731.3177283550796</v>
+        <v>4288.957159694314</v>
       </c>
       <c r="Y40" t="n">
-        <v>731.3177283550796</v>
+        <v>4068.164580550784</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,13 +7424,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>3796.266898524761</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U43" t="n">
-        <v>964.135741824786</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="V43" t="n">
-        <v>709.4512536188992</v>
+        <v>4205.966342583789</v>
       </c>
       <c r="W43" t="n">
-        <v>420.0340835819385</v>
+        <v>4017.059477668291</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>4017.059477668291</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>3796.266898524761</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,22 +7661,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,19 +7728,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>509.2863307027308</v>
+        <v>4223.429265789277</v>
       </c>
       <c r="C46" t="n">
-        <v>509.2863307027308</v>
+        <v>4054.493082861371</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1696912903951</v>
+        <v>3904.376443449035</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U46" t="n">
-        <v>874.927113122792</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V46" t="n">
-        <v>620.2426249169051</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="W46" t="n">
-        <v>620.2426249169051</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="X46" t="n">
-        <v>620.2426249169051</v>
+        <v>4343.736383329833</v>
       </c>
       <c r="Y46" t="n">
-        <v>620.2426249169051</v>
+        <v>4223.429265789277</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>104.874910276575</v>
+        <v>230.7151863772025</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>124.340078086323</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>148.1350559470644</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>134.4977453535101</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863222</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>283.6093329825486</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>165.9802687929758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>285.1031356539326</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>308.1251096272033</v>
+        <v>182.0340742867938</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>124.3400780863226</v>
+        <v>234.4116509503159</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>38.86002301949884</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>158.8724419039315</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10905,25 +10905,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>253.7371603504732</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>158.8724419039332</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>73.648593382706</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,25 +11379,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>38.86002301949878</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>80.01250186789004</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>78.5421653955826</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>7.94908472615711</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>249.6406542820135</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>87.86334435506946</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>229.8453430112718</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>18.71615992542337</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>49.17911248888083</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.40877376133712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.3550106634501</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24652,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>9.611082868103097</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.4198406026817</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>141.0907818047492</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>120.567866624414</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>40.15040480453251</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>142.6403701826939</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>73.94818353466641</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>128.077091995256</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.60243916061279</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>51.57082667398146</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25834,22 +25834,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>99.50520207024812</v>
       </c>
       <c r="X43" t="n">
-        <v>124.7054865406958</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>69.98524890990468</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>99.48060698694462</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679007.2774849687</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
@@ -26320,37 +26320,37 @@
         <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="F2" t="n">
         <v>703852.3075278756</v>
-      </c>
-      <c r="F2" t="n">
-        <v>703852.3075278758</v>
       </c>
       <c r="G2" t="n">
         <v>703852.3075278761</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.307527876</v>
       </c>
       <c r="I2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="J2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="K2" t="n">
         <v>703852.3075278759</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.307527876</v>
       </c>
       <c r="L2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="M2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="N2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="P2" t="n">
         <v>703852.307527876</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430954</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430952</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90249.10814185429</v>
+        <v>-90664.32265132177</v>
       </c>
       <c r="C6" t="n">
-        <v>499718.7710726899</v>
+        <v>499303.5565632227</v>
       </c>
       <c r="D6" t="n">
-        <v>499718.77107269</v>
+        <v>499303.5565632227</v>
       </c>
       <c r="E6" t="n">
-        <v>71993.44444795331</v>
+        <v>71659.27548082375</v>
       </c>
       <c r="F6" t="n">
-        <v>597153.4809248496</v>
+        <v>596819.31195772</v>
       </c>
       <c r="G6" t="n">
-        <v>597153.48092485</v>
+        <v>596819.3119577206</v>
       </c>
       <c r="H6" t="n">
-        <v>597153.4809248494</v>
+        <v>596819.3119577203</v>
       </c>
       <c r="I6" t="n">
-        <v>597153.4809248495</v>
+        <v>596819.3119577204</v>
       </c>
       <c r="J6" t="n">
-        <v>420730.2617322569</v>
+        <v>420396.0927651275</v>
       </c>
       <c r="K6" t="n">
-        <v>597153.4809248499</v>
+        <v>596819.3119577202</v>
       </c>
       <c r="L6" t="n">
-        <v>597153.4809248499</v>
+        <v>596819.3119577203</v>
       </c>
       <c r="M6" t="n">
-        <v>462352.4656910126</v>
+        <v>462018.2967238828</v>
       </c>
       <c r="N6" t="n">
-        <v>597153.4809248495</v>
+        <v>596819.3119577204</v>
       </c>
       <c r="O6" t="n">
-        <v>597153.4809248495</v>
+        <v>596819.3119577201</v>
       </c>
       <c r="P6" t="n">
-        <v>597153.4809248499</v>
+        <v>596819.3119577203</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26808,13 +26808,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.1503410717108</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>5.35841083929779</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>90.11527623497247</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>202.6850829073682</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>91.1545274049401</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>195.115765530157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.748071685062</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27825,10 +27825,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>69.58249272689014</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>31.74170068073266</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>6.373443736325044</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>10.81525101172491</v>
       </c>
       <c r="V10" t="n">
-        <v>87.0809865241354</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.785973998768142e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>438.0694836745878</v>
+        <v>563.9097597752154</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>457.5346514843358</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>355.2284708785892</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>383.7554503095345</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>331.4334930178469</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>532.8670379385729</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>499.1748421909887</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>595.527512704399</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>618.5494866776696</v>
+        <v>492.4584513372602</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>457.5346514843356</v>
+        <v>567.6062243483289</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>321.223725260607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>408.1301468599559</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178474</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>586.9317337484862</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>365.9658568354579</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>224.2240319706453</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>349.2844000699651</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>509.9122281478575</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3694216.0688498</v>
+        <v>3687199.053958089</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>38.59354230055877</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>314.8347055969328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>158.3437210266847</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242.4059047968452</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>73.52907136089628</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>165.3902575986304</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>181.7736994859592</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>228.3060155083705</v>
+        <v>10.29095677511113</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>234.25595204546</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>69.67056468630095</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>121.7753739978046</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.80980293781943</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>47.97254614184921</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>199.0245288049944</v>
+        <v>161.1646511182027</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.91371551089689</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>49.87525093158378</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274061</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.2422920270613</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836031</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>135.326923169501</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3088,10 +3088,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>108.6299016415632</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="35">
@@ -3319,13 +3319,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470134</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037926</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>176.7247843372152</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>195.8155841663235</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>5.562624396424664</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>3.347695664765272</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>85.74850411421487</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>64.32381826160521</v>
       </c>
       <c r="Y46" t="n">
-        <v>95.51221949089724</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1222.906241876376</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2658.165714957052</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2658.165714957052</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2658.165714957052</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2404.403929595143</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.921096014692</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="Y2" t="n">
-        <v>1222.906241876376</v>
+        <v>2073.341042251573</v>
       </c>
     </row>
     <row r="3">
@@ -4400,28 +4400,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538.7689125078493</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
         <v>369.8327295799424</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>538.7689125078493</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>538.7689125078493</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>538.7689125078493</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>538.7689125078493</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>538.7689125078493</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>632.3182666762914</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762914</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4564,22 +4564,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.312047941846</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="Y5" t="n">
-        <v>877.172715966034</v>
+        <v>2177.709280319473</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027575</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027575</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027575</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>383.5045402329972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.5045402329972</v>
+        <v>544.5191867458693</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2466.53695414108</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="V8" t="n">
-        <v>2135.474066797509</v>
+        <v>2300.662608371699</v>
       </c>
       <c r="W8" t="n">
-        <v>2135.474066797509</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="X8" t="n">
-        <v>2135.474066797509</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1745.334734821698</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.982325640618</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>579.982325640618</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>579.982325640618</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>579.982325640618</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5029,43 +5029,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,13 +5077,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>3138.955990222747</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>3446.276123502708</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>3776.138751166741</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>4253.421048821322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.2416896507652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1228.621952709515</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>939.4933139230729</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293934</v>
+        <v>939.4933139230729</v>
       </c>
       <c r="W13" t="n">
-        <v>933.2366688293934</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="X13" t="n">
-        <v>705.247117931376</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y13" t="n">
-        <v>582.2416896507652</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,67 +5263,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5366,16 +5366,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.0255547109412</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>804.0893717830343</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706985</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.787631771461</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.787631771461</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.9950526279305</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>159.1396882805848</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>874.927113122792</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>874.927113122792</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>826.4699958077928</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>598.4804449097754</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5740,58 +5740,58 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.4452354807079</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C22" t="n">
-        <v>415.509052552801</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X22" t="n">
-        <v>986.8862794544777</v>
+        <v>1225.048590232654</v>
       </c>
       <c r="Y22" t="n">
-        <v>766.0937003109476</v>
+        <v>1004.256011089124</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>816.7950850315606</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1124.115218311522</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.977845975555</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4036.895039969636</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C25" t="n">
-        <v>4036.895039969636</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="D25" t="n">
-        <v>3886.778400557301</v>
+        <v>463.6845480678925</v>
       </c>
       <c r="E25" t="n">
-        <v>3738.865306974908</v>
+        <v>315.7714544854994</v>
       </c>
       <c r="F25" t="n">
-        <v>3738.865306974908</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365625</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4525.994054365625</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>4525.994054365625</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>4525.994054365625</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X25" t="n">
-        <v>4298.004503467608</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y25" t="n">
-        <v>4077.211924324078</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,22 +6214,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,16 +6238,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.687808515591</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3628.091576844581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4036.945405494735</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>3747.528235457774</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3747.528235457774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3747.528235457774</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,13 +6475,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.358638208106</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>493.358638208106</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>493.358638208106</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>345.445544625713</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>345.445544625713</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>345.445544625713</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247873</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383456</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>675.0071030383456</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>675.0071030383456</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X31" t="n">
-        <v>675.0071030383456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>675.0071030383456</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,19 +6691,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2413.343925613455</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3830.533798082379</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3830.533798082379</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3680.417158670043</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>4347.940519017357</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>4058.523348980396</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>3830.533798082379</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>3830.533798082379</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6928,37 +6928,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6967,10 +6967,10 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
         <v>3931.29497012173</v>
@@ -6979,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.6350999123424</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>247.6350999123424</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>247.6350999123424</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123424</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7095,52 +7095,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909235</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>874.9271131227938</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>696.4172299538895</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>696.4172299538895</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>468.4276790558723</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.6350999123424</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="38">
@@ -7183,16 +7183,16 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7253,19 +7253,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1333.825180851558</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.687808515591</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
         <v>2331.418122136705</v>
@@ -7332,52 +7332,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557904</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557904</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.13085534741</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1271.74934457492</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369033</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>727.6476863320725</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340553</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905254</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7402,16 +7402,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7420,22 +7420,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1412.301619937483</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1212.381609853036</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1212.381609853036</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>923.2529710665938</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>923.2529710665938</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>633.8358010296332</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>633.8358010296332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4057.91812931515</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C46" t="n">
-        <v>3888.981946387243</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D46" t="n">
-        <v>3738.865306974908</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E46" t="n">
-        <v>3738.865306974908</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F46" t="n">
-        <v>3738.865306974908</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>4637.069157803799</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>4382.384669597912</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>4382.384669597912</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>4154.395118699895</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="Y46" t="n">
-        <v>4057.91812931515</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627892</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>199.7396287231149</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>360.5026862907255</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>20.63789864135489</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>43.6598726146247</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9719,28 +9719,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>20.6378986413535</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>73.64859338270662</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>360.5026862907255</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>124.3400780863228</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,22 +10901,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>392.1113620226438</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11144,19 +11144,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11375,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>43.65987261462539</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>151.8769963720883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.80927935429014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>164.0221772441179</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>238.5504521947418</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>26.68512658404273</v>
+        <v>64.54500427083445</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139.9182646710404</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>95.54579709134747</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.58968815487589</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>13.58690519803505</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>37.80406100500583</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="35">
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642718</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>75.41285898661263</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642718</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037926</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836031</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.8896567338119</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.21584828957793</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>161.385837127432</v>
       </c>
       <c r="Y46" t="n">
-        <v>123.0724338611976</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679007.2774849685</v>
+        <v>679007.2774849684</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679007.2774849688</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679007.2774849687</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679007.2774849687</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778546</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778547</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778545</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778544</v>
-      </c>
       <c r="E2" t="n">
+        <v>703852.3075278754</v>
+      </c>
+      <c r="F2" t="n">
         <v>703852.3075278762</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="H2" t="n">
         <v>703852.3075278761</v>
       </c>
-      <c r="G2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="H2" t="n">
-        <v>703852.3075278758</v>
-      </c>
       <c r="I2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278755</v>
       </c>
       <c r="K2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278762</v>
       </c>
       <c r="L2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="M2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="N2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="O2" t="n">
         <v>703852.3075278756</v>
       </c>
-      <c r="N2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>703852.307527876</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26435,25 +26435,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143923</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="K4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="M4" t="n">
         <v>15045.66962143914</v>
       </c>
-      <c r="L4" t="n">
-        <v>15045.66962143915</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15045.66962143915</v>
-      </c>
       <c r="N4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26478,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90664.32265132185</v>
+        <v>-90664.3226513218</v>
       </c>
       <c r="C6" t="n">
-        <v>499303.5565632224</v>
+        <v>499303.5565632225</v>
       </c>
       <c r="D6" t="n">
-        <v>499303.5565632223</v>
+        <v>499303.5565632227</v>
       </c>
       <c r="E6" t="n">
-        <v>71659.27548082423</v>
+        <v>70684.68422110153</v>
       </c>
       <c r="F6" t="n">
-        <v>596819.3119577204</v>
+        <v>595844.7206979991</v>
       </c>
       <c r="G6" t="n">
-        <v>596819.3119577204</v>
+        <v>595844.7206979985</v>
       </c>
       <c r="H6" t="n">
-        <v>596819.3119577201</v>
+        <v>595844.7206979988</v>
       </c>
       <c r="I6" t="n">
-        <v>596819.31195772</v>
+        <v>595844.7206979983</v>
       </c>
       <c r="J6" t="n">
-        <v>420396.092765127</v>
+        <v>419421.5015054053</v>
       </c>
       <c r="K6" t="n">
-        <v>596819.3119577199</v>
+        <v>595844.7206979989</v>
       </c>
       <c r="L6" t="n">
-        <v>596819.3119577202</v>
+        <v>595844.7206979987</v>
       </c>
       <c r="M6" t="n">
-        <v>462018.2967238827</v>
+        <v>461043.7054641614</v>
       </c>
       <c r="N6" t="n">
-        <v>596819.3119577201</v>
+        <v>595844.7206979984</v>
       </c>
       <c r="O6" t="n">
-        <v>596819.3119577203</v>
+        <v>595844.7206979983</v>
       </c>
       <c r="P6" t="n">
-        <v>596819.3119577204</v>
+        <v>595844.7206979987</v>
       </c>
     </row>
   </sheetData>
@@ -26709,19 +26709,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>15.88486027425293</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>71.40323305912079</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>127.938153215293</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>140.3279368666354</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>100.8866414480753</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>60.31939779040675</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>36.81095386613555</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>22.91815199991885</v>
+        <v>240.9332107331782</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>17.88169127836798</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.107776353646526e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.250555214937776e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.572357569816161e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31524,7 +31524,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,7 +31536,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307157</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>482.1033309642231</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>693.6972596887384</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>62.54807759626155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>354.084249665091</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>269.895603597378</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>356.0122956238148</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556566</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187489</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>609.7603912467498</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556566</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187489</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37162,13 +37162,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>212.353110871397</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556565</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556567</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718749</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>674.475064263752</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315246</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556567</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718749</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37864,19 +37864,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>88.0130327850741</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>376.8544460126382</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3687199.053958089</v>
+        <v>3692138.31680712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>34.50046002839157</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>73.52907136089628</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>8.389005322401447</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.7736994859592</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>245.0366881616344</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.29095677511113</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095418</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>69.67056468630095</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>161.1646511182027</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>49.87525093158378</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>219.4423352411095</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385031</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>33.35146980185857</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470134</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>195.8155841663235</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>5.562624396424664</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056514</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>64.32381826160521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1791.109440255352</v>
+        <v>1626.717708340415</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1257.755191400004</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>899.4894927932532</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>513.7012401950089</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>102.7153354054014</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>88.79193134399229</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2567.848612295285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2567.848612295285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2567.848612295285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2567.848612295285</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W5" t="n">
-        <v>2567.848612295285</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X5" t="n">
-        <v>2567.848612295285</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="Y5" t="n">
-        <v>2177.709280319473</v>
+        <v>2013.317548404537</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="Y7" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1077.074462393506</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>708.1119454530944</v>
       </c>
       <c r="D8" t="n">
         <v>460.6001392292213</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2631.72549571527</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2300.662608371699</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>1947.893953101585</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>1574.428194840505</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5032,52 +5032,52 @@
         <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5086,7 +5086,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1228.621952709515</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>939.4933139230729</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>939.4933139230729</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>650.0761438861124</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>650.0761438861124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>429.2835647425823</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>159.1396882805848</v>
+        <v>159.1396882805841</v>
       </c>
       <c r="K18" t="n">
-        <v>570.0299571250974</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L18" t="n">
-        <v>816.7950850315615</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M18" t="n">
         <v>1124.115218311523</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.977845975556</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O18" t="n">
         <v>2123.441607278215</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5734,13 +5734,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,7 +5752,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5764,28 +5764,28 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.29497012173</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5840,10 +5840,10 @@
         <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011336</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N21" t="n">
-        <v>1296.555866665166</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O21" t="n">
         <v>1808.163466324677</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1387.841167119728</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.048590232654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>1004.256011089124</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,40 +5980,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>613.8011874802282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>613.8011874802282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>463.6845480678925</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>315.7714544854994</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.231782352015</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>1016.242231453998</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>795.449652310468</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,16 +6305,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
         <v>2051.878056918008</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="29">
@@ -6454,43 +6454,43 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6548,7 +6548,7 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
         <v>1514.038914395485</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6651,22 +6651,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954965</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,19 +6712,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6903,7 +6903,7 @@
         <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6925,58 +6925,58 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7137,10 +7137,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7177,10 +7177,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515098</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,25 +7356,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028587</v>
@@ -7399,43 +7399,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7611,10 +7611,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>20.63789864135489</v>
+        <v>20.63789864135418</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>234.4116509503169</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165117</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,10 +9962,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229581</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>151.8769963720883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>29.89407122271366</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>64.54500427083445</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>95.54579709134747</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="26">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>6.267320147927677</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3581855871786</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>29.89407122271365</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>192.3581855871786</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="41">
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338571</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>161.385837127432</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679007.2774849684</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679007.2774849685</v>
+        <v>679007.2774849684</v>
       </c>
     </row>
     <row r="11">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778545</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778548</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778546</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778547</v>
-      </c>
       <c r="E2" t="n">
-        <v>703852.3075278754</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="G2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="H2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="K2" t="n">
         <v>703852.3075278761</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>703852.3075278755</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.3075278762</v>
       </c>
       <c r="L2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="M2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="N2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="P2" t="n">
         <v>703852.307527876</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143913</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26441,16 +26441,16 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26478,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90664.3226513218</v>
+        <v>-90664.32265132203</v>
       </c>
       <c r="C6" t="n">
-        <v>499303.5565632225</v>
+        <v>499303.5565632227</v>
       </c>
       <c r="D6" t="n">
-        <v>499303.5565632227</v>
+        <v>499303.5565632228</v>
       </c>
       <c r="E6" t="n">
-        <v>70684.68422110153</v>
+        <v>71561.81635485169</v>
       </c>
       <c r="F6" t="n">
-        <v>595844.7206979991</v>
+        <v>596721.8528317478</v>
       </c>
       <c r="G6" t="n">
-        <v>595844.7206979985</v>
+        <v>596721.852831748</v>
       </c>
       <c r="H6" t="n">
-        <v>595844.7206979988</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="I6" t="n">
-        <v>595844.7206979983</v>
+        <v>596721.852831748</v>
       </c>
       <c r="J6" t="n">
-        <v>419421.5015054053</v>
+        <v>420298.633639155</v>
       </c>
       <c r="K6" t="n">
-        <v>595844.7206979989</v>
+        <v>596721.8528317483</v>
       </c>
       <c r="L6" t="n">
-        <v>595844.7206979987</v>
+        <v>596721.8528317482</v>
       </c>
       <c r="M6" t="n">
-        <v>461043.7054641614</v>
+        <v>461920.8375979107</v>
       </c>
       <c r="N6" t="n">
-        <v>595844.7206979984</v>
+        <v>596721.852831748</v>
       </c>
       <c r="O6" t="n">
-        <v>595844.7206979983</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="P6" t="n">
-        <v>595844.7206979987</v>
+        <v>596721.8528317482</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,37 +26746,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990175</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990177</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545553</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.88486027425293</v>
+        <v>15.88486027425294</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>289.4223127359656</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>100.8866414480753</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>20.73374463251287</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.81095386613555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>109.6463534590485</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>240.9332107331782</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609831</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.509220748614159e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.54807759626155</v>
+        <v>62.54807759626086</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>516.775353191425</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36378,10 +36378,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36445,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36682,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37633,16 +37633,16 @@
         <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
